--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H2">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J2">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>242.5804728110918</v>
+        <v>495.3450822560007</v>
       </c>
       <c r="R2">
-        <v>242.5804728110918</v>
+        <v>4458.105740304006</v>
       </c>
       <c r="S2">
-        <v>0.003894817432782326</v>
+        <v>0.007552938887522269</v>
       </c>
       <c r="T2">
-        <v>0.003894817432782326</v>
+        <v>0.007552938887522269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H3">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J3">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>6707.439276260232</v>
+        <v>7086.494208319871</v>
       </c>
       <c r="R3">
-        <v>6707.439276260232</v>
+        <v>63778.44787487884</v>
       </c>
       <c r="S3">
-        <v>0.1076931342402458</v>
+        <v>0.1080536773242026</v>
       </c>
       <c r="T3">
-        <v>0.1076931342402458</v>
+        <v>0.1080536773242026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.5202318001816</v>
+        <v>23.496322</v>
       </c>
       <c r="H4">
-        <v>22.5202318001816</v>
+        <v>70.488966</v>
       </c>
       <c r="I4">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="J4">
-        <v>0.1279753402207684</v>
+        <v>0.1321353991144917</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>1020.653863924528</v>
+        <v>1084.008681718393</v>
       </c>
       <c r="R4">
-        <v>1020.653863924528</v>
+        <v>9756.078135465536</v>
       </c>
       <c r="S4">
-        <v>0.01638738854774021</v>
+        <v>0.0165287829027668</v>
       </c>
       <c r="T4">
-        <v>0.01638738854774021</v>
+        <v>0.0165287829027668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H5">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J5">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>1344.152686524525</v>
+        <v>2633.372211457789</v>
       </c>
       <c r="R5">
-        <v>1344.152686524525</v>
+        <v>23700.3499031201</v>
       </c>
       <c r="S5">
-        <v>0.02158141277873518</v>
+        <v>0.0401532186221661</v>
       </c>
       <c r="T5">
-        <v>0.02158141277873518</v>
+        <v>0.0401532186221661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H6">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I6">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J6">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>37166.31606166557</v>
+        <v>37673.48782358896</v>
       </c>
       <c r="R6">
-        <v>37166.31606166557</v>
+        <v>339061.3904123005</v>
       </c>
       <c r="S6">
-        <v>0.5967339993685342</v>
+        <v>0.5744390353396601</v>
       </c>
       <c r="T6">
-        <v>0.5967339993685342</v>
+        <v>0.5744390353396601</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>124.785930724697</v>
+        <v>124.9120333333333</v>
       </c>
       <c r="H7">
-        <v>124.785930724697</v>
+        <v>374.7361</v>
       </c>
       <c r="I7">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="J7">
-        <v>0.7091188972188801</v>
+        <v>0.7024631931202969</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>5655.503170999928</v>
+        <v>5762.847844204322</v>
       </c>
       <c r="R7">
-        <v>5655.503170999928</v>
+        <v>51865.6305978389</v>
       </c>
       <c r="S7">
-        <v>0.09080348507161072</v>
+        <v>0.08787093915847069</v>
       </c>
       <c r="T7">
-        <v>0.09080348507161072</v>
+        <v>0.08787093915847069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H8">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I8">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J8">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>308.7919659941519</v>
+        <v>620.051662792695</v>
       </c>
       <c r="R8">
-        <v>308.7919659941519</v>
+        <v>5580.464965134255</v>
       </c>
       <c r="S8">
-        <v>0.004957894253894611</v>
+        <v>0.009454443950166131</v>
       </c>
       <c r="T8">
-        <v>0.004957894253894611</v>
+        <v>0.009454443950166131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H9">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I9">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J9">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>8538.211410428432</v>
+        <v>8870.56856853717</v>
       </c>
       <c r="R9">
-        <v>8538.211410428432</v>
+        <v>79835.11711683453</v>
       </c>
       <c r="S9">
-        <v>0.1370875992644907</v>
+        <v>0.1352569444933164</v>
       </c>
       <c r="T9">
-        <v>0.1370875992644907</v>
+        <v>0.1352569444933164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.667050449842</v>
+        <v>29.411685</v>
       </c>
       <c r="H10">
-        <v>28.667050449842</v>
+        <v>88.235055</v>
       </c>
       <c r="I10">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="J10">
-        <v>0.1629057625603515</v>
+        <v>0.1654014077652114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>1299.237772886275</v>
+        <v>1356.915430592355</v>
       </c>
       <c r="R10">
-        <v>1299.237772886275</v>
+        <v>12212.2388753312</v>
       </c>
       <c r="S10">
-        <v>0.02086026904196623</v>
+        <v>0.02069001932172886</v>
       </c>
       <c r="T10">
-        <v>0.02086026904196623</v>
+        <v>0.02069001932172886</v>
       </c>
     </row>
   </sheetData>
